--- a/ig/ekg/StructureDefinition-medcom-ekg-recording-observation.xlsx
+++ b/ig/ekg/StructureDefinition-medcom-ekg-recording-observation.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-14T12:00:33+00:00</t>
+    <t>2026-01-15T08:05:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ekg/StructureDefinition-medcom-ekg-recording-observation.xlsx
+++ b/ig/ekg/StructureDefinition-medcom-ekg-recording-observation.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-14T12:00:33+00:00</t>
+    <t>2026-01-15T08:35:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ekg/StructureDefinition-medcom-ekg-recording-observation.xlsx
+++ b/ig/ekg/StructureDefinition-medcom-ekg-recording-observation.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.1</t>
+    <t>1.0.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-15T08:35:33+00:00</t>
+    <t>2026-01-28T10:08:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3557,7 +3557,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" hidden="true">
+    <row r="3">
       <c r="A3" t="s" s="2">
         <v>91</v>
       </c>
@@ -4035,7 +4035,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" hidden="true">
+    <row r="7">
       <c r="A7" t="s" s="2">
         <v>120</v>
       </c>
@@ -4393,7 +4393,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
         <v>145</v>
       </c>
@@ -4511,7 +4511,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
         <v>153</v>
       </c>
@@ -4867,7 +4867,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
         <v>171</v>
       </c>
@@ -5223,7 +5223,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
         <v>180</v>
       </c>
@@ -5343,7 +5343,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
         <v>187</v>
       </c>
@@ -5699,7 +5699,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
         <v>197</v>
       </c>
@@ -5939,7 +5939,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
         <v>217</v>
       </c>
@@ -6427,7 +6427,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
         <v>255</v>
       </c>
@@ -6789,7 +6789,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
         <v>276</v>
       </c>
@@ -7391,7 +7391,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
         <v>307</v>
       </c>
@@ -7513,7 +7513,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
         <v>316</v>
       </c>
@@ -8111,7 +8111,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
         <v>357</v>
       </c>
@@ -8353,7 +8353,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
         <v>378</v>
       </c>
@@ -8833,7 +8833,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
         <v>405</v>
       </c>
@@ -9195,7 +9195,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
         <v>412</v>
       </c>
@@ -9437,7 +9437,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="52" hidden="true">
+    <row r="52">
       <c r="A52" t="s" s="2">
         <v>430</v>
       </c>
@@ -9557,7 +9557,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
         <v>439</v>
       </c>
@@ -14751,7 +14751,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="96" hidden="true">
+    <row r="96">
       <c r="A96" t="s" s="2">
         <v>520</v>
       </c>
@@ -15235,7 +15235,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="100" hidden="true">
+    <row r="100">
       <c r="A100" t="s" s="2">
         <v>560</v>
       </c>
@@ -15359,7 +15359,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="101" hidden="true">
+    <row r="101">
       <c r="A101" t="s" s="2">
         <v>564</v>
       </c>
@@ -15721,7 +15721,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="104" hidden="true">
+    <row r="104">
       <c r="A104" t="s" s="2">
         <v>571</v>
       </c>
@@ -15841,7 +15841,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="105" hidden="true">
+    <row r="105">
       <c r="A105" t="s" s="2">
         <v>580</v>
       </c>
@@ -16083,7 +16083,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="107" hidden="true">
+    <row r="107">
       <c r="A107" t="s" s="2">
         <v>597</v>
       </c>
@@ -17535,7 +17535,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="119" hidden="true">
+    <row r="119">
       <c r="A119" t="s" s="2">
         <v>691</v>
       </c>
@@ -17548,7 +17548,7 @@
       </c>
       <c r="E119" s="2"/>
       <c r="F119" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="G119" t="s" s="2">
         <v>92</v>
@@ -18133,7 +18133,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="124" hidden="true">
+    <row r="124">
       <c r="A124" t="s" s="2">
         <v>713</v>
       </c>
@@ -29953,12 +29953,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AP221">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
